--- a/M3P4/Stacked Medication/M3_BIO_ExtraMetadata_MedicationStacked_20231016.xlsx
+++ b/M3P4/Stacked Medication/M3_BIO_ExtraMetadata_MedicationStacked_20231016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Administrative Database\DBS\MIDUS 3\Project 4\Public Release\Spring 2023\Stacked Medication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Administrative Database\DBS\Other\GitHub\public-documentation\M3P4\Stacked Medication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="295">
   <si>
     <t>PrimaryKey</t>
   </si>
@@ -1476,10 +1476,10 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,9 @@
       <c r="I3" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="31" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
